--- a/biology/Zoologie/Stephenson_Robert_Clarke/Stephenson_Robert_Clarke.xlsx
+++ b/biology/Zoologie/Stephenson_Robert_Clarke/Stephenson_Robert_Clarke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colonel Stephenson Robert Clarke, né le 1er juillet 1862 et mort le 3 novembre 1948, est un militaire, homme d'affaires, franc-maçon, ornithologue et horticulteur anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand voyageur, collectionneur d'oiseaux et de plantes, ainsi qu'un chasseur de gros gibiers. Après des études à Winchester, il passe quelque temps en France où naît sa passion pour les oiseaux.
 En 1880, il incorpore l'armée (Royal Sussex Regiment) dont il commande le troisième bataillon de 1906 à 1912, et participe à la Deuxième Guerre des Boers. Il est nommé Colonel, en 1909 et compagnon de l'Ordre du Bain, en 1911.
